--- a/outputFile/rplm3.xlsx
+++ b/outputFile/rplm3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>rplm_only</t>
+          <t>rplm_v3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rplm_a3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rplm_j3</t>
         </is>
       </c>
     </row>
@@ -446,7 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.6521739130434783, 14], [0.6666666666666667, 9], [0.6060606060606061, 6]]</t>
+          <t>[0.6666666666666666, 11]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.5853658536585366, 12]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.5263157894736842, 11]</t>
         </is>
       </c>
     </row>
@@ -456,7 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.5945945945945946, 9], [0.5333333333333333, 5], [0.3333333333333333, 3]]</t>
+          <t>[0.5333333333333333, 5]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[0.5, 7]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.4827586206896552, 5]</t>
         </is>
       </c>
     </row>
@@ -466,7 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.5185185185185185, 3], [0.3636363636363636, 1], [0, 1]]</t>
+          <t>[0.48, 2]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[0.2608695652173913, 3]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.10526315789473684, 1]</t>
         </is>
       </c>
     </row>
